--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,506 +410,331 @@
         <v>email</v>
       </c>
       <c r="C1" t="str">
-        <v>message</v>
+        <v>phonenumber</v>
       </c>
       <c r="D1" t="str">
-        <v>phonenumber</v>
+        <v>agreementtype</v>
       </c>
       <c r="E1" t="str">
-        <v>agreementtype</v>
+        <v>eip</v>
       </c>
       <c r="F1" t="str">
-        <v>eip</v>
+        <v>promotion</v>
       </c>
       <c r="G1" t="str">
-        <v>promotion</v>
+        <v>paperless</v>
       </c>
       <c r="H1" t="str">
-        <v>paperless</v>
+        <v>specialinstruction</v>
       </c>
       <c r="I1" t="str">
-        <v>specialinstruction</v>
+        <v>businesslegalname</v>
       </c>
       <c r="J1" t="str">
-        <v>businesslegalname</v>
+        <v>businessaddress</v>
       </c>
       <c r="K1" t="str">
-        <v>businessaddress</v>
+        <v>businesscity</v>
       </c>
       <c r="L1" t="str">
-        <v>businesscity</v>
+        <v>businessstate</v>
       </c>
       <c r="M1" t="str">
-        <v>businessstate</v>
+        <v>businesszip</v>
       </c>
       <c r="N1" t="str">
-        <v>businesszip</v>
+        <v>taxid</v>
       </c>
       <c r="O1" t="str">
-        <v>taxid</v>
+        <v>contactname</v>
       </c>
       <c r="P1" t="str">
-        <v>contactname</v>
+        <v>contactphone</v>
       </c>
       <c r="Q1" t="str">
-        <v>contactphone</v>
+        <v>contactemail</v>
       </c>
       <c r="R1" t="str">
-        <v>contactemail</v>
+        <v>locationid</v>
       </c>
       <c r="S1" t="str">
-        <v>locationid</v>
+        <v>billtomobile</v>
       </c>
       <c r="T1" t="str">
-        <v>billtomobile</v>
+        <v>creditcardpayment</v>
       </c>
       <c r="U1" t="str">
-        <v>creditcardpayment</v>
+        <v>singleormultiaddresshipment</v>
       </c>
       <c r="V1" t="str">
-        <v>singleormultiaddresshipment</v>
+        <v>attentionname</v>
       </c>
       <c r="W1" t="str">
-        <v>attentionname</v>
+        <v>shippingaddress</v>
       </c>
       <c r="X1" t="str">
-        <v>shippingaddress</v>
+        <v>shippingcity</v>
       </c>
       <c r="Y1" t="str">
-        <v>shippingcity</v>
+        <v>shippingstate</v>
       </c>
       <c r="Z1" t="str">
-        <v>shippingstate</v>
+        <v>shippingzip</v>
       </c>
       <c r="AA1" t="str">
-        <v>shippingzip</v>
+        <v>currentwirelesscarrier</v>
       </c>
       <c r="AB1" t="str">
-        <v>currentwirelesscarrier</v>
+        <v>accountnumber</v>
       </c>
       <c r="AC1" t="str">
-        <v>accountnumber</v>
+        <v>pinorpassword</v>
       </c>
       <c r="AD1" t="str">
-        <v>pinorpassword</v>
+        <v>ssnortaxid</v>
       </c>
       <c r="AE1" t="str">
-        <v>ssnortaxid</v>
+        <v>billingname</v>
       </c>
       <c r="AF1" t="str">
-        <v>billingname</v>
+        <v>billingaddress</v>
       </c>
       <c r="AG1" t="str">
-        <v>billingaddress</v>
+        <v>billingcity</v>
       </c>
       <c r="AH1" t="str">
-        <v>billingcity</v>
+        <v>billingstate</v>
       </c>
       <c r="AI1" t="str">
-        <v>billingstate</v>
+        <v>billingzip</v>
       </c>
       <c r="AJ1" t="str">
-        <v>billingzip</v>
-      </c>
-      <c r="AK1" t="str">
         <v>authorizedname</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Moazzam Ali</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>mah.mac220@gmail.com</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>jh</v>
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <v/>
+      </c>
+      <c r="AE2" t="str">
+        <v/>
+      </c>
+      <c r="AF2" t="str">
+        <v/>
+      </c>
+      <c r="AG2" t="str">
+        <v/>
+      </c>
+      <c r="AH2" t="str">
+        <v/>
+      </c>
+      <c r="AI2" t="str">
+        <v/>
+      </c>
+      <c r="AJ2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>as</v>
+        <v/>
       </c>
       <c r="B3" t="str">
-        <v>mah.mac220@gmail.com</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>asf</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Moazzam Ali</v>
-      </c>
-      <c r="B4" t="str">
-        <v>mah.mac220@gmail.com</v>
-      </c>
-      <c r="C4" t="str">
-        <v>asdasd</v>
-      </c>
-      <c r="D4" t="str">
-        <v>03224066958</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Moazzam Ali</v>
-      </c>
-      <c r="B5" t="str">
-        <v>mah.mac220@gmail.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>03224066958</v>
-      </c>
-      <c r="E5" t="str">
-        <v>amb</v>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v>expected</v>
-      </c>
-      <c r="H5" t="str">
-        <v>accepted</v>
-      </c>
-      <c r="I5" t="str">
-        <v>as</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <v>amb</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v>accepted</v>
-      </c>
-      <c r="H6" t="str">
-        <v>accepted</v>
-      </c>
-      <c r="I6" t="str">
-        <v>qwe</v>
-      </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <v/>
-      </c>
-      <c r="M6" t="str">
-        <v/>
-      </c>
-      <c r="N6" t="str">
-        <v/>
-      </c>
-      <c r="O6" t="str">
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <v/>
-      </c>
-      <c r="Q6" t="str">
-        <v/>
-      </c>
-      <c r="R6" t="str">
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="U6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="V6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="W6" t="str">
-        <v>qwe</v>
-      </c>
-      <c r="X6" t="str">
-        <v>ewq</v>
-      </c>
-      <c r="Y6" t="str">
-        <v>qwe</v>
-      </c>
-      <c r="Z6" t="str">
-        <v>wqe</v>
-      </c>
-      <c r="AA6" t="str">
-        <v>qwe</v>
-      </c>
-      <c r="AB6" t="str">
-        <v>qweq</v>
-      </c>
-      <c r="AC6" t="str">
-        <v>qwr</v>
-      </c>
-      <c r="AD6" t="str">
-        <v>qwr</v>
-      </c>
-      <c r="AE6" t="str">
-        <v>qwr</v>
-      </c>
-      <c r="AF6" t="str">
-        <v>qwr</v>
-      </c>
-      <c r="AG6" t="str">
-        <v>wqr</v>
-      </c>
-      <c r="AH6" t="str">
-        <v>wqr</v>
-      </c>
-      <c r="AI6" t="str">
-        <v>rqw</v>
-      </c>
-      <c r="AJ6" t="str">
-        <v>wqr</v>
-      </c>
-      <c r="AK6" t="str">
-        <v>qwr</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <v/>
-      </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <v/>
-      </c>
-      <c r="O7" t="str">
-        <v/>
-      </c>
-      <c r="P7" t="str">
-        <v/>
-      </c>
-      <c r="Q7" t="str">
-        <v/>
-      </c>
-      <c r="R7" t="str">
-        <v/>
-      </c>
-      <c r="S7" t="str">
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <v/>
-      </c>
-      <c r="V7" t="str">
-        <v/>
-      </c>
-      <c r="W7" t="str">
-        <v/>
-      </c>
-      <c r="X7" t="str">
-        <v/>
-      </c>
-      <c r="Y7" t="str">
-        <v/>
-      </c>
-      <c r="Z7" t="str">
-        <v/>
-      </c>
-      <c r="AA7" t="str">
-        <v/>
-      </c>
-      <c r="AB7" t="str">
-        <v/>
-      </c>
-      <c r="AC7" t="str">
-        <v/>
-      </c>
-      <c r="AD7" t="str">
-        <v/>
-      </c>
-      <c r="AE7" t="str">
-        <v/>
-      </c>
-      <c r="AF7" t="str">
-        <v/>
-      </c>
-      <c r="AG7" t="str">
-        <v/>
-      </c>
-      <c r="AH7" t="str">
-        <v/>
-      </c>
-      <c r="AI7" t="str">
-        <v/>
-      </c>
-      <c r="AJ7" t="str">
-        <v/>
-      </c>
-      <c r="AK7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Moazzam Ali</v>
-      </c>
-      <c r="B8" t="str">
-        <v>mah.mac220@gmail.com</v>
-      </c>
-      <c r="D8" t="str">
-        <v>03224066958</v>
-      </c>
-      <c r="E8" t="str">
-        <v>amb</v>
-      </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v>accepted</v>
-      </c>
-      <c r="H8" t="str">
-        <v>accepted</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Please make this right</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Moazzam</v>
-      </c>
-      <c r="K8" t="str">
-        <v>63 A2 block 1 township Lahore</v>
-      </c>
-      <c r="L8" t="str">
-        <v>Faisalabad</v>
-      </c>
-      <c r="M8" t="str">
-        <v>sa</v>
-      </c>
-      <c r="N8" t="str">
-        <v>37000</v>
-      </c>
-      <c r="O8" t="str">
-        <v>asd</v>
-      </c>
-      <c r="P8" t="str">
-        <v>asd</v>
-      </c>
-      <c r="Q8" t="str">
-        <v>asd</v>
-      </c>
-      <c r="R8" t="str">
-        <v>23r@gmail.com</v>
-      </c>
-      <c r="S8" t="str">
-        <v>asd</v>
-      </c>
-      <c r="T8" t="str">
-        <v>yes</v>
-      </c>
-      <c r="U8" t="str">
-        <v>yes</v>
-      </c>
-      <c r="V8" t="str">
-        <v>multiple</v>
-      </c>
-      <c r="W8" t="str">
-        <v>asd</v>
-      </c>
-      <c r="X8" t="str">
-        <v>asd</v>
-      </c>
-      <c r="Y8" t="str">
-        <v>sda</v>
-      </c>
-      <c r="Z8" t="str">
-        <v>sda</v>
-      </c>
-      <c r="AA8" t="str">
-        <v>dsa</v>
-      </c>
-      <c r="AB8" t="str">
-        <v>awf</v>
-      </c>
-      <c r="AC8" t="str">
-        <v>wfaf</v>
-      </c>
-      <c r="AD8" t="str">
-        <v>awd</v>
-      </c>
-      <c r="AE8" t="str">
-        <v>awd</v>
-      </c>
-      <c r="AF8" t="str">
-        <v>awfw</v>
-      </c>
-      <c r="AG8" t="str">
-        <v>awfad</v>
-      </c>
-      <c r="AH8" t="str">
-        <v>awf</v>
-      </c>
-      <c r="AI8" t="str">
-        <v>awd</v>
-      </c>
-      <c r="AJ8" t="str">
-        <v>awdw</v>
-      </c>
-      <c r="AK8" t="str">
-        <v>fwaf</v>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <v/>
+      </c>
+      <c r="AI3" t="str">
+        <v/>
+      </c>
+      <c r="AJ3" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AK8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AJ3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,9 +732,229 @@
         <v/>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v/>
+      </c>
+      <c r="AH4" t="str">
+        <v/>
+      </c>
+      <c r="AI4" t="str">
+        <v/>
+      </c>
+      <c r="AJ4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <v/>
+      </c>
+      <c r="AG5" t="str">
+        <v/>
+      </c>
+      <c r="AH5" t="str">
+        <v/>
+      </c>
+      <c r="AI5" t="str">
+        <v/>
+      </c>
+      <c r="AJ5" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AJ3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AJ5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -952,9 +952,339 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <v/>
+      </c>
+      <c r="AF6" t="str">
+        <v/>
+      </c>
+      <c r="AG6" t="str">
+        <v/>
+      </c>
+      <c r="AH6" t="str">
+        <v/>
+      </c>
+      <c r="AI6" t="str">
+        <v/>
+      </c>
+      <c r="AJ6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <v/>
+      </c>
+      <c r="AE7" t="str">
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <v/>
+      </c>
+      <c r="AG7" t="str">
+        <v/>
+      </c>
+      <c r="AH7" t="str">
+        <v/>
+      </c>
+      <c r="AI7" t="str">
+        <v/>
+      </c>
+      <c r="AJ7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <v/>
+      </c>
+      <c r="AE8" t="str">
+        <v/>
+      </c>
+      <c r="AF8" t="str">
+        <v/>
+      </c>
+      <c r="AG8" t="str">
+        <v/>
+      </c>
+      <c r="AH8" t="str">
+        <v/>
+      </c>
+      <c r="AI8" t="str">
+        <v/>
+      </c>
+      <c r="AJ8" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AJ5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AJ8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -622,9 +622,339 @@
         <v/>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <v/>
+      </c>
+      <c r="AI3" t="str">
+        <v/>
+      </c>
+      <c r="AJ3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v/>
+      </c>
+      <c r="AH4" t="str">
+        <v/>
+      </c>
+      <c r="AI4" t="str">
+        <v/>
+      </c>
+      <c r="AJ4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <v/>
+      </c>
+      <c r="AG5" t="str">
+        <v/>
+      </c>
+      <c r="AH5" t="str">
+        <v/>
+      </c>
+      <c r="AI5" t="str">
+        <v/>
+      </c>
+      <c r="AJ5" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AJ2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AJ5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +607,16 @@
         <v/>
       </c>
       <c r="AF2" t="str">
-        <v/>
+        <v>63 A2 block 1 township Lahore</v>
       </c>
       <c r="AG2" t="str">
-        <v/>
+        <v>Faisalabad</v>
       </c>
       <c r="AH2" t="str">
         <v/>
       </c>
       <c r="AI2" t="str">
-        <v/>
+        <v>37000</v>
       </c>
       <c r="AJ2" t="str">
         <v/>
@@ -842,229 +842,9 @@
         <v/>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v/>
-      </c>
-      <c r="B5" t="str">
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <v/>
-      </c>
-      <c r="P5" t="str">
-        <v/>
-      </c>
-      <c r="Q5" t="str">
-        <v/>
-      </c>
-      <c r="R5" t="str">
-        <v/>
-      </c>
-      <c r="S5" t="str">
-        <v/>
-      </c>
-      <c r="T5" t="str">
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <v/>
-      </c>
-      <c r="V5" t="str">
-        <v/>
-      </c>
-      <c r="W5" t="str">
-        <v/>
-      </c>
-      <c r="X5" t="str">
-        <v/>
-      </c>
-      <c r="Y5" t="str">
-        <v/>
-      </c>
-      <c r="Z5" t="str">
-        <v/>
-      </c>
-      <c r="AA5" t="str">
-        <v/>
-      </c>
-      <c r="AB5" t="str">
-        <v/>
-      </c>
-      <c r="AC5" t="str">
-        <v/>
-      </c>
-      <c r="AD5" t="str">
-        <v/>
-      </c>
-      <c r="AE5" t="str">
-        <v/>
-      </c>
-      <c r="AF5" t="str">
-        <v/>
-      </c>
-      <c r="AG5" t="str">
-        <v/>
-      </c>
-      <c r="AH5" t="str">
-        <v/>
-      </c>
-      <c r="AI5" t="str">
-        <v/>
-      </c>
-      <c r="AJ5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <v/>
-      </c>
-      <c r="M6" t="str">
-        <v/>
-      </c>
-      <c r="N6" t="str">
-        <v/>
-      </c>
-      <c r="O6" t="str">
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <v/>
-      </c>
-      <c r="Q6" t="str">
-        <v/>
-      </c>
-      <c r="R6" t="str">
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <v/>
-      </c>
-      <c r="V6" t="str">
-        <v/>
-      </c>
-      <c r="W6" t="str">
-        <v/>
-      </c>
-      <c r="X6" t="str">
-        <v/>
-      </c>
-      <c r="Y6" t="str">
-        <v/>
-      </c>
-      <c r="Z6" t="str">
-        <v/>
-      </c>
-      <c r="AA6" t="str">
-        <v/>
-      </c>
-      <c r="AB6" t="str">
-        <v/>
-      </c>
-      <c r="AC6" t="str">
-        <v/>
-      </c>
-      <c r="AD6" t="str">
-        <v/>
-      </c>
-      <c r="AE6" t="str">
-        <v/>
-      </c>
-      <c r="AF6" t="str">
-        <v/>
-      </c>
-      <c r="AG6" t="str">
-        <v/>
-      </c>
-      <c r="AH6" t="str">
-        <v/>
-      </c>
-      <c r="AI6" t="str">
-        <v/>
-      </c>
-      <c r="AJ6" t="str">
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AJ6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AJ4"/>
   </ignoredErrors>
 </worksheet>
 </file>